--- a/prepdata/8m/ichijikyu_comment_8.xlsx
+++ b/prepdata/8m/ichijikyu_comment_8.xlsx
@@ -14,23 +14,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="97">
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>不可日</t>
-  </si>
-  <si>
-    <t>希望日</t>
-  </si>
-  <si>
     <t>accept</t>
   </si>
   <si>
     <t>reject</t>
   </si>
   <si>
+    <t>species</t>
+  </si>
+  <si>
     <t>1次救急希望についての備考</t>
   </si>
   <si>
@@ -154,6 +151,48 @@
     <t>雪野満</t>
   </si>
   <si>
+    <t>8月6日 ,8月7日 ,8月8日 ,8月13日 ,8月14日 ,8月15日 ,8月20日 ,8月21日 ,8月22日 ,8月27日 ,8月28日 ,8月29日</t>
+  </si>
+  <si>
+    <t>8月1日 ,8月2日 ,8月5日 ,8月6日 ,8月8日 ,8月9日 ,8月13日 ,8月15日 ,8月16日 ,8月19日 ,8月20日 ,8月22日 ,8月23日 ,8月26日 ,8月27日 ,8月29日 ,8月30日</t>
+  </si>
+  <si>
+    <t>8月2日 ,8月9日 ,8月16日 ,8月23日 ,8月30日</t>
+  </si>
+  <si>
+    <t>8月5日 ,8月26日</t>
+  </si>
+  <si>
+    <t>8月5日 ,8月6日 ,8月7日 ,8月8日 ,8月9日 ,8月14日 ,8月21日 ,8月22日 ,8月26日 ,8月28日 ,8月30日</t>
+  </si>
+  <si>
+    <t>8月2日 ,8月5日 ,8月7日 ,8月9日 ,8月14日 ,8月16日 ,8月19日 ,8月21日 ,8月23日 ,8月26日 ,8月28日 ,8月30日</t>
+  </si>
+  <si>
+    <t>8月5日 ,8月6日 ,8月7日 ,8月13日 ,8月14日 ,8月19日 ,8月20日 ,8月21日 ,8月26日 ,8月27日 ,8月28日</t>
+  </si>
+  <si>
+    <t>8月2日 ,8月9日 ,8月23日</t>
+  </si>
+  <si>
+    <t>8月1日 ,8月2日 ,8月5日 ,8月8日 ,8月9日 ,8月15日 ,8月22日 ,8月23日 ,8月26日 ,8月29日 ,8月30日</t>
+  </si>
+  <si>
+    <t>8月5日 ,8月6日 ,8月19日 ,8月20日</t>
+  </si>
+  <si>
+    <t>8月5日 ,8月7日 ,8月14日 ,8月19日 ,8月21日 ,8月26日 ,8月28日</t>
+  </si>
+  <si>
+    <t>8月1日 ,8月2日 ,8月5日 ,8月6日 ,8月7日 ,8月8日 ,8月9日 ,8月13日 ,8月14日 ,8月15日 ,8月16日 ,8月19日 ,8月20日 ,8月21日 ,8月22日 ,8月23日 ,8月26日 ,8月27日 ,8月28日 ,8月29日 ,8月30日</t>
+  </si>
+  <si>
+    <t>8月5日 ,8月19日 ,8月26日</t>
+  </si>
+  <si>
+    <t>8月5日 ,8月19日</t>
+  </si>
+  <si>
     <t>8月8日 ,8月15日 ,8月16日 ,8月19日 ,8月22日 ,8月29日</t>
   </si>
   <si>
@@ -202,9 +241,6 @@
     <t>8月7日 ,8月14日 ,8月16日 ,8月19日 ,8月20日 ,8月21日 ,8月28日</t>
   </si>
   <si>
-    <t>8月1日 ,8月2日 ,8月5日 ,8月6日 ,8月7日 ,8月8日 ,8月9日 ,8月13日 ,8月14日 ,8月15日 ,8月16日 ,8月19日 ,8月20日 ,8月21日 ,8月22日 ,8月23日 ,8月26日 ,8月27日 ,8月28日 ,8月29日 ,8月30日</t>
-  </si>
-  <si>
     <t>8月6日 ,8月7日 ,8月13日 ,8月14日 ,8月16日 ,8月19日 ,8月20日 ,8月21日 ,8月27日 ,8月28日</t>
   </si>
   <si>
@@ -256,43 +292,7 @@
     <t>8月2日 ,8月6日 ,8月13日 ,8月16日 ,8月20日 ,8月23日 ,8月27日 ,8月30日</t>
   </si>
   <si>
-    <t>8月6日 ,8月7日 ,8月8日 ,8月13日 ,8月14日 ,8月15日 ,8月20日 ,8月21日 ,8月22日 ,8月27日 ,8月28日 ,8月29日</t>
-  </si>
-  <si>
-    <t>8月1日 ,8月2日 ,8月5日 ,8月6日 ,8月8日 ,8月9日 ,8月13日 ,8月15日 ,8月16日 ,8月19日 ,8月20日 ,8月22日 ,8月23日 ,8月26日 ,8月27日 ,8月29日 ,8月30日</t>
-  </si>
-  <si>
-    <t>8月2日 ,8月9日 ,8月16日 ,8月23日 ,8月30日</t>
-  </si>
-  <si>
-    <t>8月5日 ,8月26日</t>
-  </si>
-  <si>
-    <t>8月5日 ,8月6日 ,8月7日 ,8月8日 ,8月9日 ,8月14日 ,8月21日 ,8月22日 ,8月26日 ,8月28日 ,8月30日</t>
-  </si>
-  <si>
-    <t>8月2日 ,8月5日 ,8月7日 ,8月9日 ,8月14日 ,8月16日 ,8月19日 ,8月21日 ,8月23日 ,8月26日 ,8月28日 ,8月30日</t>
-  </si>
-  <si>
-    <t>8月5日 ,8月6日 ,8月7日 ,8月13日 ,8月14日 ,8月19日 ,8月20日 ,8月21日 ,8月26日 ,8月27日 ,8月28日</t>
-  </si>
-  <si>
-    <t>8月2日 ,8月9日 ,8月23日</t>
-  </si>
-  <si>
-    <t>8月1日 ,8月2日 ,8月5日 ,8月8日 ,8月9日 ,8月15日 ,8月22日 ,8月23日 ,8月26日 ,8月29日 ,8月30日</t>
-  </si>
-  <si>
-    <t>8月5日 ,8月6日 ,8月19日 ,8月20日</t>
-  </si>
-  <si>
-    <t>8月5日 ,8月7日 ,8月14日 ,8月19日 ,8月21日 ,8月26日 ,8月28日</t>
-  </si>
-  <si>
-    <t>8月5日 ,8月19日 ,8月26日</t>
-  </si>
-  <si>
-    <t>8月5日 ,8月19日</t>
+    <t>ichijikyu</t>
   </si>
   <si>
     <t>月曜日のみです。</t>
@@ -662,13 +662,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -684,652 +684,613 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>80</v>
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="E8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
-      </c>
-      <c r="F11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>86</v>
-      </c>
-      <c r="F14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D18" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E18" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>62</v>
-      </c>
-      <c r="F19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="E20" t="s">
-        <v>88</v>
-      </c>
-      <c r="F20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" t="s">
-        <v>66</v>
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" t="s">
+        <v>92</v>
       </c>
       <c r="F23" t="s">
-        <v>66</v>
-      </c>
-      <c r="G23" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E26" t="s">
-        <v>89</v>
-      </c>
-      <c r="F26" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" t="s">
-        <v>69</v>
-      </c>
-      <c r="F27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>30</v>
+      </c>
+      <c r="D27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F28" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>31</v>
+      </c>
+      <c r="D28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" t="s">
-        <v>71</v>
-      </c>
-      <c r="F29" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>32</v>
+      </c>
+      <c r="D29" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" t="s">
-        <v>72</v>
-      </c>
-      <c r="F30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>33</v>
+      </c>
+      <c r="D30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" t="s">
-        <v>73</v>
-      </c>
-      <c r="F31" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>34</v>
+      </c>
+      <c r="D31" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" t="s">
-        <v>74</v>
-      </c>
-      <c r="F32" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>35</v>
+      </c>
+      <c r="D32" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" t="s">
-        <v>75</v>
-      </c>
-      <c r="F33" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>36</v>
+      </c>
+      <c r="D33" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" t="s">
-        <v>57</v>
-      </c>
-      <c r="F34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>37</v>
+      </c>
+      <c r="D34" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="D35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E35" t="s">
-        <v>90</v>
-      </c>
-      <c r="F35" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
-      </c>
-      <c r="D36" t="s">
-        <v>62</v>
+        <v>39</v>
+      </c>
+      <c r="C36" t="s">
+        <v>56</v>
       </c>
       <c r="E36" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" t="s">
-        <v>77</v>
-      </c>
-      <c r="F37" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="D37" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" t="s">
-        <v>62</v>
+        <v>41</v>
+      </c>
+      <c r="D38" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38" t="s">
+        <v>92</v>
       </c>
       <c r="F38" t="s">
-        <v>62</v>
-      </c>
-      <c r="G38" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D39" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="E39" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F39" t="s">
-        <v>64</v>
-      </c>
-      <c r="G39" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="D40" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E40" t="s">
         <v>92</v>
       </c>
-      <c r="F40" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" t="s">
-        <v>79</v>
-      </c>
-      <c r="F41" t="s">
-        <v>79</v>
+        <v>44</v>
+      </c>
+      <c r="D41" t="s">
+        <v>91</v>
+      </c>
+      <c r="E41" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/prepdata/8m/ichijikyu_comment_8.xlsx
+++ b/prepdata/8m/ichijikyu_comment_8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="98">
   <si>
     <t>name</t>
   </si>
@@ -31,280 +31,283 @@
     <t>1次救急希望についての備考</t>
   </si>
   <si>
+    <t>野上創生</t>
+  </si>
+  <si>
+    <t>先崎光</t>
+  </si>
+  <si>
+    <t>石井真央</t>
+  </si>
+  <si>
+    <t>福井梓穂</t>
+  </si>
+  <si>
+    <t>岩崎文美</t>
+  </si>
+  <si>
+    <t>鈴木徹志郎</t>
+  </si>
+  <si>
+    <t>谷岡友則</t>
+  </si>
+  <si>
+    <t>松原龍輔</t>
+  </si>
+  <si>
+    <t>熊木聡美</t>
+  </si>
+  <si>
+    <t>臼坂優希</t>
+  </si>
+  <si>
+    <t>吉田博道</t>
+  </si>
+  <si>
+    <t>織部峻太郎</t>
+  </si>
+  <si>
+    <t>平井智大</t>
+  </si>
+  <si>
+    <t>勝俣敬寛</t>
+  </si>
+  <si>
+    <t>佐川偲</t>
+  </si>
+  <si>
+    <t>川瀬咲</t>
+  </si>
+  <si>
+    <t>星貴文</t>
+  </si>
+  <si>
+    <t>脇坂悠介</t>
+  </si>
+  <si>
     <t>久冨木原健二</t>
   </si>
   <si>
-    <t>佐川偲</t>
-  </si>
-  <si>
-    <t>先崎光</t>
+    <t>鄭東孝</t>
+  </si>
+  <si>
+    <t>里見良輔</t>
+  </si>
+  <si>
+    <t>鈴木勝也</t>
+  </si>
+  <si>
+    <t>長谷川華子</t>
+  </si>
+  <si>
+    <t>藤村慶子</t>
+  </si>
+  <si>
+    <t>籠尾壽哉</t>
+  </si>
+  <si>
+    <t>清水隆之</t>
+  </si>
+  <si>
+    <t>福島龍貴</t>
+  </si>
+  <si>
+    <t>片山充哉</t>
+  </si>
+  <si>
+    <t>門松賢</t>
+  </si>
+  <si>
+    <t>津山頌章</t>
+  </si>
+  <si>
+    <t>林智史</t>
+  </si>
+  <si>
+    <t>松浦友一</t>
+  </si>
+  <si>
+    <t>持丸貴生</t>
+  </si>
+  <si>
+    <t>小西美沙子</t>
+  </si>
+  <si>
+    <t>小林佐紀子</t>
+  </si>
+  <si>
+    <t>安富大祐</t>
+  </si>
+  <si>
+    <t>大重達寛</t>
   </si>
   <si>
     <t>入佐薫</t>
   </si>
   <si>
-    <t>勝俣敬寛</t>
-  </si>
-  <si>
-    <t>吉田博道</t>
-  </si>
-  <si>
-    <t>大重達寛</t>
-  </si>
-  <si>
-    <t>安富大祐</t>
-  </si>
-  <si>
-    <t>小林佐紀子</t>
-  </si>
-  <si>
-    <t>小西美沙子</t>
-  </si>
-  <si>
-    <t>岩崎文美</t>
-  </si>
-  <si>
-    <t>川瀬咲</t>
-  </si>
-  <si>
-    <t>平井智大</t>
-  </si>
-  <si>
-    <t>持丸貴生</t>
-  </si>
-  <si>
-    <t>星貴文</t>
-  </si>
-  <si>
-    <t>松原龍輔</t>
-  </si>
-  <si>
-    <t>松浦友一</t>
-  </si>
-  <si>
-    <t>林智史</t>
-  </si>
-  <si>
-    <t>津山頌章</t>
-  </si>
-  <si>
-    <t>清水隆之</t>
-  </si>
-  <si>
-    <t>熊木聡美</t>
-  </si>
-  <si>
-    <t>片山充哉</t>
-  </si>
-  <si>
-    <t>石井真央</t>
-  </si>
-  <si>
-    <t>福井梓穂</t>
-  </si>
-  <si>
-    <t>福島龍貴</t>
-  </si>
-  <si>
     <t>篠﨑太郎</t>
   </si>
   <si>
-    <t>籠尾壽哉</t>
-  </si>
-  <si>
-    <t>織部峻太郎</t>
-  </si>
-  <si>
-    <t>脇坂悠介</t>
-  </si>
-  <si>
-    <t>臼坂優希</t>
-  </si>
-  <si>
-    <t>藤村慶子</t>
-  </si>
-  <si>
-    <t>谷岡友則</t>
-  </si>
-  <si>
-    <t>鄭東孝</t>
-  </si>
-  <si>
-    <t>里見良輔</t>
-  </si>
-  <si>
-    <t>野上創生</t>
-  </si>
-  <si>
-    <t>鈴木勝也</t>
-  </si>
-  <si>
-    <t>鈴木徹志郎</t>
-  </si>
-  <si>
-    <t>長谷川華子</t>
-  </si>
-  <si>
-    <t>門松賢</t>
-  </si>
-  <si>
     <t>雪野満</t>
   </si>
   <si>
+    <t>8月1日 ,8月2日 ,8月5日 ,8月6日 ,8月7日 ,8月8日 ,8月9日 ,8月13日 ,8月14日 ,8月15日 ,8月16日 ,8月19日 ,8月20日 ,8月21日 ,8月22日 ,8月23日 ,8月26日 ,8月27日 ,8月28日 ,8月29日 ,8月30日</t>
+  </si>
+  <si>
     <t>8月6日 ,8月7日 ,8月8日 ,8月13日 ,8月14日 ,8月15日 ,8月20日 ,8月21日 ,8月22日 ,8月27日 ,8月28日 ,8月29日</t>
   </si>
   <si>
+    <t>8月5日 ,8月6日 ,8月7日 ,8月13日 ,8月14日 ,8月19日 ,8月20日 ,8月21日 ,8月26日 ,8月27日 ,8月28日</t>
+  </si>
+  <si>
     <t>8月1日 ,8月2日 ,8月5日 ,8月6日 ,8月8日 ,8月9日 ,8月13日 ,8月15日 ,8月16日 ,8月19日 ,8月20日 ,8月22日 ,8月23日 ,8月26日 ,8月27日 ,8月29日 ,8月30日</t>
   </si>
   <si>
+    <t>8月2日 ,8月5日 ,8月7日 ,8月9日 ,8月14日 ,8月16日 ,8月19日 ,8月21日 ,8月23日 ,8月26日 ,8月28日 ,8月30日</t>
+  </si>
+  <si>
+    <t>8月5日 ,8月7日 ,8月14日 ,8月19日 ,8月21日 ,8月26日 ,8月28日</t>
+  </si>
+  <si>
+    <t>8月5日 ,8月19日 ,8月26日</t>
+  </si>
+  <si>
+    <t>8月5日 ,8月6日 ,8月19日 ,8月20日</t>
+  </si>
+  <si>
+    <t>8月5日 ,8月19日</t>
+  </si>
+  <si>
+    <t>8月1日 ,8月2日 ,8月5日 ,8月8日 ,8月9日 ,8月15日 ,8月22日 ,8月23日 ,8月26日 ,8月29日 ,8月30日</t>
+  </si>
+  <si>
+    <t>8月2日 ,8月9日 ,8月23日</t>
+  </si>
+  <si>
+    <t>8月5日 ,8月6日 ,8月7日 ,8月8日 ,8月9日 ,8月14日 ,8月21日 ,8月22日 ,8月26日 ,8月28日 ,8月30日</t>
+  </si>
+  <si>
+    <t>8月5日 ,8月26日</t>
+  </si>
+  <si>
     <t>8月2日 ,8月9日 ,8月16日 ,8月23日 ,8月30日</t>
   </si>
   <si>
-    <t>8月5日 ,8月26日</t>
-  </si>
-  <si>
-    <t>8月5日 ,8月6日 ,8月7日 ,8月8日 ,8月9日 ,8月14日 ,8月21日 ,8月22日 ,8月26日 ,8月28日 ,8月30日</t>
-  </si>
-  <si>
-    <t>8月2日 ,8月5日 ,8月7日 ,8月9日 ,8月14日 ,8月16日 ,8月19日 ,8月21日 ,8月23日 ,8月26日 ,8月28日 ,8月30日</t>
-  </si>
-  <si>
-    <t>8月5日 ,8月6日 ,8月7日 ,8月13日 ,8月14日 ,8月19日 ,8月20日 ,8月21日 ,8月26日 ,8月27日 ,8月28日</t>
-  </si>
-  <si>
-    <t>8月2日 ,8月9日 ,8月23日</t>
-  </si>
-  <si>
-    <t>8月1日 ,8月2日 ,8月5日 ,8月8日 ,8月9日 ,8月15日 ,8月22日 ,8月23日 ,8月26日 ,8月29日 ,8月30日</t>
-  </si>
-  <si>
-    <t>8月5日 ,8月6日 ,8月19日 ,8月20日</t>
-  </si>
-  <si>
-    <t>8月5日 ,8月7日 ,8月14日 ,8月19日 ,8月21日 ,8月26日 ,8月28日</t>
-  </si>
-  <si>
-    <t>8月1日 ,8月2日 ,8月5日 ,8月6日 ,8月7日 ,8月8日 ,8月9日 ,8月13日 ,8月14日 ,8月15日 ,8月16日 ,8月19日 ,8月20日 ,8月21日 ,8月22日 ,8月23日 ,8月26日 ,8月27日 ,8月28日 ,8月29日 ,8月30日</t>
-  </si>
-  <si>
-    <t>8月5日 ,8月19日 ,8月26日</t>
-  </si>
-  <si>
-    <t>8月5日 ,8月19日</t>
+    <t>8月30日</t>
+  </si>
+  <si>
+    <t>8月1日 ,8月2日 ,8月5日 ,8月6日 ,8月7日 ,8月8日 ,8月9日 ,8月13日 ,8月16日 ,8月19日 ,8月23日 ,8月26日 ,8月30日</t>
+  </si>
+  <si>
+    <t>8月1日 ,8月2日</t>
+  </si>
+  <si>
+    <t>8月15日 ,8月16日 ,8月19日 ,8月20日</t>
+  </si>
+  <si>
+    <t>8月29日 ,8月30日</t>
+  </si>
+  <si>
+    <t>8月9日</t>
+  </si>
+  <si>
+    <t>8月6日 ,8月21日 ,8月29日 ,8月30日</t>
+  </si>
+  <si>
+    <t>8月6日 ,8月13日 ,8月20日 ,8月22日 ,8月27日</t>
+  </si>
+  <si>
+    <t>8月1日 ,8月2日 ,8月8日 ,8月9日 ,8月15日 ,8月16日 ,8月22日 ,8月23日 ,8月29日 ,8月30日</t>
+  </si>
+  <si>
+    <t>8月7日 ,8月14日 ,8月21日 ,8月28日</t>
+  </si>
+  <si>
+    <t>8月5日 ,8月6日 ,8月13日 ,8月19日 ,8月20日 ,8月26日 ,8月27日</t>
+  </si>
+  <si>
+    <t>8月1日 ,8月6日 ,8月8日 ,8月13日 ,8月15日 ,8月20日 ,8月22日 ,8月27日 ,8月29日</t>
+  </si>
+  <si>
+    <t>8月26日 ,8月27日 ,8月28日 ,8月29日 ,8月30日</t>
+  </si>
+  <si>
+    <t>8月1日 ,8月5日 ,8月8日 ,8月9日 ,8月15日 ,8月16日 ,8月22日 ,8月23日 ,8月29日 ,8月30日</t>
   </si>
   <si>
     <t>8月8日 ,8月15日 ,8月16日 ,8月19日 ,8月22日 ,8月29日</t>
   </si>
   <si>
-    <t>8月5日 ,8月6日 ,8月13日 ,8月19日 ,8月20日 ,8月26日 ,8月27日</t>
+    <t>8月1日 ,8月2日 ,8月6日 ,8月8日 ,8月9日 ,8月13日 ,8月15日 ,8月16日 ,8月20日 ,8月22日 ,8月23日 ,8月27日 ,8月29日 ,8月30日</t>
+  </si>
+  <si>
+    <t>8月1日 ,8月5日 ,8月6日 ,8月13日 ,8月19日 ,8月20日 ,8月26日 ,8月27日 ,8月29日</t>
+  </si>
+  <si>
+    <t>8月1日 ,8月2日 ,8月6日 ,8月7日 ,8月8日 ,8月9日 ,8月13日 ,8月14日 ,8月15日 ,8月16日 ,8月20日 ,8月21日 ,8月22日 ,8月23日 ,8月27日 ,8月28日 ,8月29日 ,8月30日</t>
+  </si>
+  <si>
+    <t>8月1日 ,8月2日 ,8月5日 ,8月7日 ,8月8日 ,8月14日 ,8月15日 ,8月21日 ,8月22日 ,8月23日 ,8月28日 ,8月29日</t>
+  </si>
+  <si>
+    <t>8月2日 ,8月5日 ,8月9日 ,8月16日 ,8月19日 ,8月23日 ,8月26日 ,8月30日</t>
+  </si>
+  <si>
+    <t>8月1日 ,8月7日 ,8月14日 ,8月21日 ,8月28日 ,8月29日</t>
+  </si>
+  <si>
+    <t>8月2日 ,8月5日 ,8月6日 ,8月7日 ,8月8日 ,8月9日 ,8月13日 ,8月19日 ,8月20日 ,8月27日 ,8月30日</t>
+  </si>
+  <si>
+    <t>8月1日 ,8月2日 ,8月6日 ,8月7日 ,8月8日 ,8月9日 ,8月13日 ,8月14日 ,8月15日 ,8月16日 ,8月20日 ,8月21日 ,8月22日 ,8月23日 ,8月26日 ,8月27日 ,8月28日 ,8月29日 ,8月30日</t>
+  </si>
+  <si>
+    <t>8月6日 ,8月7日 ,8月13日 ,8月14日 ,8月16日 ,8月19日 ,8月20日 ,8月21日 ,8月27日 ,8月28日</t>
+  </si>
+  <si>
+    <t>8月7日 ,8月14日 ,8月16日 ,8月19日 ,8月20日 ,8月21日 ,8月28日</t>
+  </si>
+  <si>
+    <t>8月2日 ,8月13日 ,8月14日 ,8月16日 ,8月19日 ,8月20日 ,8月23日 ,8月26日 ,8月27日 ,8月30日</t>
+  </si>
+  <si>
+    <t>8月1日 ,8月2日 ,8月13日 ,8月15日 ,8月16日 ,8月19日 ,8月20日 ,8月23日 ,8月27日 ,8月29日</t>
+  </si>
+  <si>
+    <t>8月1日 ,8月2日 ,8月6日 ,8月7日 ,8月8日 ,8月9日 ,8月13日 ,8月14日 ,8月15日 ,8月16日 ,8月19日 ,8月20日 ,8月21日 ,8月22日 ,8月23日 ,8月27日 ,8月28日 ,8月29日 ,8月30日</t>
+  </si>
+  <si>
+    <t>8月1日 ,8月2日 ,8月5日 ,8月7日 ,8月8日 ,8月9日 ,8月14日 ,8月15日 ,8月16日 ,8月19日 ,8月21日 ,8月23日 ,8月26日 ,8月28日 ,8月29日 ,8月30日</t>
+  </si>
+  <si>
+    <t>8月1日 ,8月5日 ,8月6日 ,8月7日 ,8月8日 ,8月13日 ,8月14日 ,8月15日 ,8月19日 ,8月20日 ,8月21日 ,8月22日 ,8月26日 ,8月27日 ,8月28日 ,8月29日</t>
   </si>
   <si>
     <t>8月2日 ,8月5日 ,8月7日 ,8月9日 ,8月13日 ,8月14日 ,8月15日 ,8月16日 ,8月19日 ,8月21日 ,8月23日 ,8月26日 ,8月28日 ,8月30日</t>
   </si>
   <si>
-    <t>8月7日 ,8月14日 ,8月21日 ,8月28日</t>
-  </si>
-  <si>
-    <t>8月6日 ,8月21日 ,8月29日 ,8月30日</t>
-  </si>
-  <si>
-    <t>8月1日 ,8月5日 ,8月6日 ,8月7日 ,8月8日 ,8月13日 ,8月14日 ,8月15日 ,8月19日 ,8月20日 ,8月21日 ,8月22日 ,8月26日 ,8月27日 ,8月28日 ,8月29日</t>
-  </si>
-  <si>
-    <t>8月1日 ,8月2日 ,8月5日 ,8月7日 ,8月8日 ,8月9日 ,8月14日 ,8月15日 ,8月16日 ,8月19日 ,8月21日 ,8月23日 ,8月26日 ,8月28日 ,8月29日 ,8月30日</t>
-  </si>
-  <si>
-    <t>8月1日 ,8月2日 ,8月6日 ,8月7日 ,8月8日 ,8月9日 ,8月13日 ,8月14日 ,8月15日 ,8月16日 ,8月19日 ,8月20日 ,8月21日 ,8月22日 ,8月23日 ,8月27日 ,8月28日 ,8月29日 ,8月30日</t>
-  </si>
-  <si>
-    <t>8月1日 ,8月2日 ,8月13日 ,8月15日 ,8月16日 ,8月19日 ,8月20日 ,8月23日 ,8月27日 ,8月29日</t>
-  </si>
-  <si>
-    <t>8月30日</t>
-  </si>
-  <si>
-    <t>8月1日 ,8月6日 ,8月8日 ,8月13日 ,8月15日 ,8月20日 ,8月22日 ,8月27日 ,8月29日</t>
-  </si>
-  <si>
-    <t>8月1日 ,8月2日 ,8月8日 ,8月9日 ,8月15日 ,8月16日 ,8月22日 ,8月23日 ,8月29日 ,8月30日</t>
-  </si>
-  <si>
-    <t>8月2日 ,8月13日 ,8月14日 ,8月16日 ,8月19日 ,8月20日 ,8月23日 ,8月26日 ,8月27日 ,8月30日</t>
-  </si>
-  <si>
-    <t>8月26日 ,8月27日 ,8月28日 ,8月29日 ,8月30日</t>
-  </si>
-  <si>
-    <t>8月15日 ,8月16日 ,8月19日 ,8月20日</t>
-  </si>
-  <si>
-    <t>8月7日 ,8月14日 ,8月16日 ,8月19日 ,8月20日 ,8月21日 ,8月28日</t>
-  </si>
-  <si>
-    <t>8月6日 ,8月7日 ,8月13日 ,8月14日 ,8月16日 ,8月19日 ,8月20日 ,8月21日 ,8月27日 ,8月28日</t>
-  </si>
-  <si>
-    <t>8月1日 ,8月2日 ,8月6日 ,8月7日 ,8月8日 ,8月9日 ,8月13日 ,8月14日 ,8月15日 ,8月16日 ,8月20日 ,8月21日 ,8月22日 ,8月23日 ,8月27日 ,8月28日 ,8月29日 ,8月30日</t>
-  </si>
-  <si>
-    <t>8月29日 ,8月30日</t>
-  </si>
-  <si>
-    <t>8月2日 ,8月5日 ,8月6日 ,8月7日 ,8月8日 ,8月9日 ,8月13日 ,8月19日 ,8月20日 ,8月27日 ,8月30日</t>
-  </si>
-  <si>
-    <t>8月1日 ,8月2日 ,8月5日 ,8月6日 ,8月7日 ,8月8日 ,8月9日 ,8月13日 ,8月16日 ,8月19日 ,8月23日 ,8月26日 ,8月30日</t>
-  </si>
-  <si>
-    <t>8月1日 ,8月7日 ,8月14日 ,8月21日 ,8月28日 ,8月29日</t>
-  </si>
-  <si>
     <t>8月6日 ,8月7日 ,8月13日 ,8月14日 ,8月20日 ,8月21日 ,8月27日 ,8月28日</t>
   </si>
   <si>
-    <t>8月2日 ,8月5日 ,8月9日 ,8月16日 ,8月19日 ,8月23日 ,8月26日 ,8月30日</t>
-  </si>
-  <si>
-    <t>8月6日 ,8月13日 ,8月20日 ,8月22日 ,8月27日</t>
-  </si>
-  <si>
-    <t>8月1日 ,8月5日 ,8月8日 ,8月9日 ,8月15日 ,8月16日 ,8月22日 ,8月23日 ,8月29日 ,8月30日</t>
-  </si>
-  <si>
-    <t>8月9日</t>
-  </si>
-  <si>
-    <t>8月1日 ,8月2日 ,8月5日 ,8月7日 ,8月8日 ,8月14日 ,8月15日 ,8月21日 ,8月22日 ,8月23日 ,8月28日 ,8月29日</t>
-  </si>
-  <si>
-    <t>8月1日 ,8月2日</t>
-  </si>
-  <si>
-    <t>8月1日 ,8月2日 ,8月6日 ,8月8日 ,8月9日 ,8月13日 ,8月15日 ,8月16日 ,8月20日 ,8月22日 ,8月23日 ,8月27日 ,8月29日 ,8月30日</t>
-  </si>
-  <si>
-    <t>8月1日 ,8月5日 ,8月6日 ,8月13日 ,8月19日 ,8月20日 ,8月26日 ,8月27日 ,8月29日</t>
-  </si>
-  <si>
-    <t>8月1日 ,8月2日 ,8月6日 ,8月7日 ,8月8日 ,8月9日 ,8月13日 ,8月14日 ,8月15日 ,8月16日 ,8月20日 ,8月21日 ,8月22日 ,8月23日 ,8月26日 ,8月27日 ,8月28日 ,8月29日 ,8月30日</t>
-  </si>
-  <si>
     <t>8月2日 ,8月6日 ,8月13日 ,8月16日 ,8月20日 ,8月23日 ,8月27日 ,8月30日</t>
   </si>
   <si>
     <t>ichijikyu</t>
   </si>
   <si>
+    <t>8月18日　JMECC受講でシフトにないることできません。</t>
+  </si>
+  <si>
+    <t>月曜のみ可能です</t>
+  </si>
+  <si>
+    <t>水曜外勤木曜外来</t>
+  </si>
+  <si>
+    <t>火曜日が外勤になります。すいません。</t>
+  </si>
+  <si>
     <t>月曜日のみです。</t>
-  </si>
-  <si>
-    <t>火曜日が外勤になります。すいません。</t>
-  </si>
-  <si>
-    <t>8月18日　JMECC受講でシフトにないることできません。</t>
-  </si>
-  <si>
-    <t>月曜のみ可能です</t>
   </si>
 </sst>
 </file>
@@ -687,13 +690,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>59</v>
+      <c r="C2" t="s">
+        <v>45</v>
       </c>
       <c r="E2" t="s">
         <v>92</v>
@@ -701,13 +704,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
-        <v>60</v>
+      <c r="C3" t="s">
+        <v>46</v>
       </c>
       <c r="E3" t="s">
         <v>92</v>
@@ -715,13 +718,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>45</v>
+      <c r="D4" t="s">
+        <v>59</v>
       </c>
       <c r="E4" t="s">
         <v>92</v>
@@ -729,13 +732,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
         <v>92</v>
@@ -743,16 +746,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
-        <v>46</v>
-      </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
         <v>92</v>
@@ -760,30 +760,30 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
         <v>92</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
-        <v>47</v>
-      </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
         <v>92</v>
@@ -791,13 +791,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
         <v>92</v>
@@ -805,36 +805,27 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="s">
-        <v>48</v>
-      </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
         <v>92</v>
-      </c>
-      <c r="F10" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" t="s">
-        <v>49</v>
-      </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
         <v>92</v>
@@ -842,13 +833,13 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
         <v>92</v>
@@ -856,16 +847,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" t="s">
-        <v>50</v>
-      </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
         <v>92</v>
@@ -879,10 +867,10 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
         <v>92</v>
@@ -890,13 +878,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
       </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
         <v>92</v>
@@ -904,13 +895,13 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
         <v>92</v>
@@ -918,13 +909,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
       </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
         <v>92</v>
@@ -932,16 +926,13 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
       </c>
-      <c r="C18" t="s">
-        <v>52</v>
-      </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E18" t="s">
         <v>92</v>
@@ -949,13 +940,13 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="E19" t="s">
         <v>92</v>
@@ -963,16 +954,13 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
       </c>
-      <c r="C20" t="s">
-        <v>53</v>
-      </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E20" t="s">
         <v>92</v>
@@ -980,13 +968,13 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E21" t="s">
         <v>92</v>
@@ -994,13 +982,16 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
       </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
       <c r="D22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E22" t="s">
         <v>92</v>
@@ -1008,61 +999,64 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E23" t="s">
         <v>92</v>
-      </c>
-      <c r="F23" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
         <v>27</v>
       </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
       <c r="D24" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E24" t="s">
         <v>92</v>
+      </c>
+      <c r="F24" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
         <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E25" t="s">
         <v>92</v>
+      </c>
+      <c r="F25" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
         <v>29</v>
       </c>
-      <c r="C26" t="s">
-        <v>54</v>
-      </c>
       <c r="D26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E26" t="s">
         <v>92</v>
@@ -1070,13 +1064,13 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B27" t="s">
         <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E27" t="s">
         <v>92</v>
@@ -1084,13 +1078,16 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>31</v>
       </c>
+      <c r="C28" t="s">
+        <v>52</v>
+      </c>
       <c r="D28" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E28" t="s">
         <v>92</v>
@@ -1098,27 +1095,33 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
         <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E29" t="s">
         <v>92</v>
+      </c>
+      <c r="F29" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
         <v>33</v>
       </c>
+      <c r="C30" t="s">
+        <v>53</v>
+      </c>
       <c r="D30" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E30" t="s">
         <v>92</v>
@@ -1126,13 +1129,16 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
         <v>34</v>
       </c>
+      <c r="C31" t="s">
+        <v>54</v>
+      </c>
       <c r="D31" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E31" t="s">
         <v>92</v>
@@ -1140,13 +1146,13 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s">
         <v>35</v>
       </c>
       <c r="D32" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="E32" t="s">
         <v>92</v>
@@ -1154,13 +1160,16 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B33" t="s">
         <v>36</v>
       </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
       <c r="D33" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E33" t="s">
         <v>92</v>
@@ -1168,13 +1177,13 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B34" t="s">
         <v>37</v>
       </c>
       <c r="D34" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="E34" t="s">
         <v>92</v>
@@ -1182,16 +1191,16 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B35" t="s">
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D35" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E35" t="s">
         <v>92</v>
@@ -1199,27 +1208,33 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="D36" t="s">
+        <v>86</v>
       </c>
       <c r="E36" t="s">
         <v>92</v>
+      </c>
+      <c r="F36" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="B37" t="s">
         <v>40</v>
       </c>
       <c r="D37" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E37" t="s">
         <v>92</v>
@@ -1227,50 +1242,41 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s">
         <v>41</v>
       </c>
+      <c r="C38" t="s">
+        <v>58</v>
+      </c>
       <c r="D38" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="E38" t="s">
         <v>92</v>
-      </c>
-      <c r="F38" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B39" t="s">
         <v>42</v>
       </c>
-      <c r="C39" t="s">
-        <v>57</v>
-      </c>
       <c r="D39" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E39" t="s">
         <v>92</v>
-      </c>
-      <c r="F39" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B40" t="s">
         <v>43</v>
-      </c>
-      <c r="C40" t="s">
-        <v>58</v>
       </c>
       <c r="D40" t="s">
         <v>90</v>
